--- a/results/multiclass/181/automl.xlsx
+++ b/results/multiclass/181/automl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,25 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_average_precision_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>training_time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>test_time</t>
         </is>
@@ -568,10 +583,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>00:00:12</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -595,17 +625,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.535</t>
+          <t>0.496</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.319</t>
+          <t>0.313</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.514</t>
+          <t>0.466</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -615,12 +645,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.457</t>
+          <t>0.467</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.326</t>
+          <t>0.313</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -640,10 +670,25 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>00:00:56</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -667,34 +712,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.601</t>
+          <t>0.589</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0.531</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.613</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.646</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.639</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>0.533</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.617</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.646</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.638</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.534</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>-1.000</t>
@@ -712,12 +757,27 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>00:10:46</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>00:10:40</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>00:02:32</t>
         </is>
       </c>
     </row>
@@ -784,10 +844,25 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>00:13:22</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>00:11:29</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -856,10 +931,25 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>00:10:01</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>00:10:02</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -873,7 +963,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.623</t>
+          <t>0.606</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -883,32 +973,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.590</t>
+          <t>0.584</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.505</t>
+          <t>0.485</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.566</t>
+          <t>0.561</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.623</t>
+          <t>0.606</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.614</t>
+          <t>0.596</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.507</t>
+          <t>0.485</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -928,10 +1018,25 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>00:10:00</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -945,7 +1050,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.613</t>
+          <t>0.623</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -955,32 +1060,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.601</t>
+          <t>0.603</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>0.506</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.601</t>
+          <t>0.595</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.613</t>
+          <t>0.623</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.604</t>
+          <t>0.616</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>0.507</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1000,10 +1105,25 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>00:08:59</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>00:09:00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1017,7 +1137,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.205</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1027,32 +1147,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.081</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.132</t>
+          <t>-0.113</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.059</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.205</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.161</t>
+          <t>0.177</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.144</t>
+          <t>-0.124</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1072,10 +1192,25 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>00:10:06</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>00:10:05</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1144,10 +1279,25 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>00:01:07</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1216,10 +1366,25 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>00:10:01</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>

--- a/results/multiclass/181/automl.xlsx
+++ b/results/multiclass/181/automl.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:57 (00:08:41 Â± 00:03:44)</t>
+          <t>00:04:57 (00:07:27 Â± 00:03:31)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 7, 11, 13, 17, 23, 29, 31, 37, 41, 43, 47, 59, 61, 67, 71]</t>
+          <t>[2, 3, 5, 7, 11, 13, 17, 29, 31, 37, 41, 43, 47, 59, 61, 67, 71]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.658 (0.601 Â± 0.027)</t>
+          <t>0.649 (0.595 Â± 0.028)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:21:24 Â± 01:13:42)</t>
+          <t>00:04:29 (00:04:30 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -919,12 +919,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.666 (0.601 Â± 0.027)</t>
+          <t>0.666 (0.599 Â± 0.026)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:33:37 (00:35:59 Â± 00:01:27)</t>
+          <t>00:00:18 (00:00:19 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/results/multiclass/181/automl.xlsx
+++ b/results/multiclass/181/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.612 (0.600 Â± 0.010)</t>
+          <t>0.612 (0.600 ± 0.010)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:49 (00:05:33 Â± 00:01:05)</t>
+          <t>00:04:49 (00:05:33 ± 00:01:05)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:03 Â± 00:00:02)</t>
+          <t>00:00:00 (00:00:03 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.632 (0.589 Â± 0.022)</t>
+          <t>0.632 (0.589 ± 0.022)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:29 (00:00:34 Â± 00:00:05)</t>
+          <t>00:00:29 (00:00:34 ± 00:00:05)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.577 (0.526 Â± 0.027)</t>
+          <t>0.577 (0.526 ± 0.027)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:30 (00:00:41 Â± 00:00:10)</t>
+          <t>00:00:30 (00:00:41 ± 00:00:10)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.648 (0.598 Â± 0.029)</t>
+          <t>0.648 (0.598 ± 0.029)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:14 Â± 00:00:04)</t>
+          <t>00:05:05 (00:05:14 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.669 (0.610 Â± 0.030)</t>
+          <t>0.669 (0.610 ± 0.030)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:03 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:03 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.566 (0.532 Â± 0.021)</t>
+          <t>0.566 (0.532 ± 0.021)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.596 (0.594 Â± 0.002)</t>
+          <t>0.596 (0.594 ± 0.002)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:57 (00:07:27 Â± 00:03:31)</t>
+          <t>00:04:57 (00:07:27 ± 00:03:31)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.652 (0.599 Â± 0.029)</t>
+          <t>0.652 (0.599 ± 0.029)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:01 Â± 00:00:01)</t>
+          <t>00:04:59 (00:05:01 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.649 (0.595 Â± 0.028)</t>
+          <t>0.649 (0.595 ± 0.028)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:30 Â± 00:00:02)</t>
+          <t>00:04:29 (00:04:30 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.551 (0.390 Â± 0.135)</t>
+          <t>0.551 (0.390 ± 0.135)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:01)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.285 (0.239 Â± 0.022)</t>
+          <t>0.285 (0.239 ± 0.022)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:01:57 (00:02:36 Â± 00:00:16)</t>
+          <t>00:01:57 (00:02:36 ± 00:00:16)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.401 (0.306 Â± 0.050)</t>
+          <t>0.401 (0.306 ± 0.050)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.660 (0.600 Â± 0.030)</t>
+          <t>0.660 (0.600 ± 0.030)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:49 (00:00:52 Â± 00:00:03)</t>
+          <t>00:00:49 (00:00:52 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.606 (0.589 Â± 0.012)</t>
+          <t>0.606 (0.589 ± 0.012)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:02:04 (00:04:07 Â± 00:01:10)</t>
+          <t>00:02:04 (00:04:07 ± 00:01:10)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.666 (0.599 Â± 0.026)</t>
+          <t>0.666 (0.599 ± 0.026)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:18 (00:00:19 Â± 00:00:00)</t>
+          <t>00:00:18 (00:00:19 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.663 (0.607 Â± 0.027)</t>
+          <t>0.663 (0.607 ± 0.027)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:05 Â± 00:00:05)</t>
+          <t>00:05:00 (00:05:05 ± 00:00:05)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
